--- a/myAPI/1_readIMU/layout.xlsx
+++ b/myAPI/1_readIMU/layout.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Documents\GitHub\adamShiau_Python\myAPI\1_readIMU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\1_readIMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6892CD3F-2210-4D85-B2E2-EF726AC4F0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626CF46F-84EC-48A9-86D5-330EA9C5821A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +77,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,13 +123,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -381,16 +417,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="3.625" customWidth="1"/>
+    <col min="1" max="19" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -422,20 +458,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -446,7 +482,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -457,7 +493,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -468,27 +504,27 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -498,4 +534,161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F08198-54E2-4CF4-A1E9-1BAF976AA403}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="22" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/myAPI/1_readIMU/layout.xlsx
+++ b/myAPI/1_readIMU/layout.xlsx
@@ -5,21 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\1_readIMU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\3_readPIG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626CF46F-84EC-48A9-86D5-330EA9C5821A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA8EDF9-6878-4A0B-A66E-1207A2E1A20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="3075" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +53,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,7 +116,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -135,6 +157,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -538,10 +562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F08198-54E2-4CF4-A1E9-1BAF976AA403}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -549,7 +573,7 @@
     <col min="1" max="22" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -580,33 +604,80 @@
       <c r="K1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1">
+        <f>K1+1</f>
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <f t="shared" ref="M1:W1" si="0">L1+1</f>
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -615,13 +686,23 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -630,13 +711,23 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -645,13 +736,23 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -660,30 +761,180 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
